--- a/Resultados em Excel/Dados Rotor 1.xlsx
+++ b/Resultados em Excel/Dados Rotor 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diwiw\OneDrive\Documentos\A UFRJ\Estágio - LAVI\LAVI\Testando algoritmos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb8303c99d3ac548/Documentos/A UFRJ/Estágio - LAVI/LAVI/Resultados em Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF248031-AB4C-4961-BE58-F8B8EC877F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{EF248031-AB4C-4961-BE58-F8B8EC877F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5185D827-1891-4EC9-9567-5EEDB100827E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ev.Dif" sheetId="1" r:id="rId1"/>
@@ -439,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2049.13</v>
       </c>
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1560.05</v>
       </c>
@@ -561,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>803.56</v>
       </c>
@@ -599,7 +599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1206.79</v>
       </c>
@@ -637,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1117.77</v>
       </c>
@@ -674,8 +674,12 @@
       <c r="L6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <f>1600*0.6</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1162.77</v>
       </c>
@@ -713,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1252.6099999999999</v>
       </c>
@@ -751,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1027.93</v>
       </c>
@@ -789,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1163.1400000000001</v>
       </c>
@@ -827,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1028.81</v>
       </c>
@@ -865,7 +869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>800000</v>
       </c>
@@ -940,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Resultados em Excel/Dados Rotor 1.xlsx
+++ b/Resultados em Excel/Dados Rotor 1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb8303c99d3ac548/Documentos/A UFRJ/Estágio - LAVI/LAVI/Resultados em Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{EF248031-AB4C-4961-BE58-F8B8EC877F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5185D827-1891-4EC9-9567-5EEDB100827E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{EF248031-AB4C-4961-BE58-F8B8EC877F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0323FF7C-CC46-4181-BF03-E5A3228FF8AD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ev.Dif" sheetId="1" r:id="rId1"/>
     <sheet name="D.Ann." sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>Tempo</t>
   </si>
@@ -76,6 +77,15 @@
   </si>
   <si>
     <t>D.Ann.</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>TRF</t>
+  </si>
+  <si>
+    <t>LM</t>
   </si>
 </sst>
 </file>
@@ -97,12 +107,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -132,10 +160,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -152,6 +189,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -945,7 +986,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1371,4 +1412,163 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34070194-FAD8-4BCD-8186-843C401A42E3}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>2049.13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13.16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1620</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>761.52</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="D3" s="3">
+        <v>56.71</v>
+      </c>
+      <c r="E3" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1022</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>683.03</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.82</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>116.67</v>
+      </c>
+      <c r="E4" s="3">
+        <v>119.98</v>
+      </c>
+      <c r="F4" s="3">
+        <v>576</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44.87</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3220.33</v>
+      </c>
+      <c r="E5" s="4">
+        <v>571.01</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>202.11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="4">
+        <v>46.28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>31.18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>147484.01</v>
+      </c>
+      <c r="F6" s="4">
+        <v>109</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>